--- a/sigbm_download_2023-01-13.xlsx
+++ b/sigbm_download_2023-01-13.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231213.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="4258">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 11:57:57</t>
+    <t>Informação extraída do SIGBM: 13/01/2023 - 12:12:53</t>
   </si>
   <si>
     <t>ID Barragem</t>
